--- a/data/case1/5/details_5.xlsx
+++ b/data/case1/5/details_5.xlsx
@@ -61,11 +61,11 @@
     <col min="3" max="3" width="3.140625" customWidth="true"/>
     <col min="4" max="4" width="3.140625" customWidth="true"/>
     <col min="5" max="5" width="3.140625" customWidth="true"/>
-    <col min="6" max="6" width="3.140625" customWidth="true"/>
-    <col min="7" max="7" width="2.140625" customWidth="true"/>
-    <col min="8" max="8" width="2.140625" customWidth="true"/>
-    <col min="9" max="9" width="3.140625" customWidth="true"/>
-    <col min="10" max="10" width="2.140625" customWidth="true"/>
+    <col min="6" max="6" width="2.140625" customWidth="true"/>
+    <col min="7" max="7" width="3.140625" customWidth="true"/>
+    <col min="8" max="8" width="3.140625" customWidth="true"/>
+    <col min="9" max="9" width="2.140625" customWidth="true"/>
+    <col min="10" max="10" width="3.140625" customWidth="true"/>
     <col min="11" max="11" width="3.140625" customWidth="true"/>
     <col min="12" max="12" width="3.140625" customWidth="true"/>
     <col min="13" max="13" width="5.7109375" customWidth="true"/>
@@ -83,49 +83,49 @@
         <v>5</v>
       </c>
       <c r="C1" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F1" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G1" s="0">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H1" s="0">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I1" s="0">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J1" s="0">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L1" s="0">
         <v>12</v>
       </c>
       <c r="M1" s="0">
-        <v>0.081000000000000003</v>
+        <v>0.033000000000000002</v>
       </c>
       <c r="N1" s="0">
-        <v>0.084000000000000005</v>
+        <v>0.064000000000000001</v>
       </c>
       <c r="O1" s="0">
-        <v>0.058999999999999997</v>
+        <v>0.083999999999999991</v>
       </c>
       <c r="P1" s="0">
-        <v>0.044999999999999998</v>
+        <v>0.088999999999999996</v>
       </c>
       <c r="Q1" s="0">
-        <v>0.068000000000000005</v>
+        <v>0.085999999999999993</v>
       </c>
     </row>
   </sheetData>
